--- a/data/20230420/Template_ColorimetricAssay_19042023.xlsx
+++ b/data/20230420/Template_ColorimetricAssay_19042023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
   <si>
     <t>A</t>
   </si>
@@ -53,96 +53,12 @@
     <t>buffer_(TNG)</t>
   </si>
   <si>
-    <t>Gordon_1_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>Gordon_2_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>Gordon_3_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>Gordon_1_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>Gordon_2_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>Gordon_3_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>pcdf1_1_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>pcdf1_2_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>pcdf1_3_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>pcdf1_1_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>pcdf1_2_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>pcdf1_3_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>Cory_1_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>Cory_2_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>Cory_3_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>Cory_1_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>Cory_2_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>Cory_3_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>Lacticasei_1_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>Lacticasei_2_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>Lacticasei_3_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>Lacticasei_1_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>Lacticasei_2_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>Lacticasei_3_boiled_control_substrate</t>
-  </si>
-  <si>
     <t>Ochro_refrozen_1_enzyme_substrate</t>
   </si>
   <si>
-    <t>Ochro_refrozen_2_enzyme_substrate</t>
-  </si>
-  <si>
-    <t>Ochro_refrozen_3_enzyme_substrate</t>
-  </si>
-  <si>
     <t>Ochro_refrozen_1_boiled_control_substrate</t>
   </si>
   <si>
-    <t>Ochro_refrozen_2_boiled_control_substrate</t>
-  </si>
-  <si>
-    <t>Ochro_refrozen_3_boiled_control_substrate</t>
-  </si>
-  <si>
     <t>stdcurve_0</t>
   </si>
   <si>
@@ -162,6 +78,33 @@
   </si>
   <si>
     <t>TNG + substrate</t>
+  </si>
+  <si>
+    <t>pcdf__enzyme_substrate</t>
+  </si>
+  <si>
+    <t>pcdf__boiled_control_substrate</t>
+  </si>
+  <si>
+    <t>Cory__enzyme_substrate</t>
+  </si>
+  <si>
+    <t>Cory__boiled_control_substrate</t>
+  </si>
+  <si>
+    <t>Lacticasei__enzyme_substrate</t>
+  </si>
+  <si>
+    <t>Lacticasei__boiled_control_substrate</t>
+  </si>
+  <si>
+    <t>Gordon__boiled_control_substrate</t>
+  </si>
+  <si>
+    <t>Gordon__enzyme_substrate</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -229,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -266,19 +209,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -355,37 +285,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,22 +606,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="4">
         <v>6</v>
       </c>
       <c r="H1" s="1">
@@ -721,217 +644,332 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
